--- a/JupyterNotebooks/AveragedIntensites/RGossF-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/RGossF-HW30.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="RGossF-HW30.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="RGossF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -952,7 +952,7 @@
         <v>0.9949682368236191</v>
       </c>
       <c r="D13">
-        <v>0.9955323564408872</v>
+        <v>0.9955323564408874</v>
       </c>
       <c r="E13">
         <v>0.9955326076678206</v>
@@ -970,16 +970,16 @@
         <v>0.9955470416539435</v>
       </c>
       <c r="J13">
-        <v>0.9955323564408872</v>
+        <v>0.9955323564408874</v>
       </c>
       <c r="K13">
-        <v>0.9955324820543539</v>
+        <v>0.9955324820543541</v>
       </c>
       <c r="L13">
-        <v>0.9952503594389864</v>
+        <v>0.9952503594389865</v>
       </c>
       <c r="M13">
-        <v>0.995464863471665</v>
+        <v>0.9954648634716651</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>0.9961703798582474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.9978792165590392</v>
+      </c>
+      <c r="D16">
+        <v>0.9568473323611687</v>
+      </c>
+      <c r="E16">
+        <v>1.010399892071232</v>
+      </c>
+      <c r="F16">
+        <v>0.9978792165590392</v>
+      </c>
+      <c r="G16">
+        <v>0.9686704768203884</v>
+      </c>
+      <c r="H16">
+        <v>1.038396101144211</v>
+      </c>
+      <c r="I16">
+        <v>1.008068444588059</v>
+      </c>
+      <c r="J16">
+        <v>0.9568473323611687</v>
+      </c>
+      <c r="K16">
+        <v>0.9836236122162003</v>
+      </c>
+      <c r="L16">
+        <v>0.9907514143876198</v>
+      </c>
+      <c r="M16">
+        <v>0.9967102439240163</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/RGossF-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/RGossF-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.9978792165590392</v>

--- a/JupyterNotebooks/AveragedIntensites/RGossF-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/RGossF-HW30.xlsx
@@ -955,7 +955,7 @@
         <v>0.9949682368236191</v>
       </c>
       <c r="D13">
-        <v>0.9955323564408874</v>
+        <v>0.9955323564408872</v>
       </c>
       <c r="E13">
         <v>0.9955326076678206</v>
@@ -973,16 +973,16 @@
         <v>0.9955470416539435</v>
       </c>
       <c r="J13">
-        <v>0.9955323564408874</v>
+        <v>0.9955323564408872</v>
       </c>
       <c r="K13">
-        <v>0.9955324820543541</v>
+        <v>0.9955324820543539</v>
       </c>
       <c r="L13">
-        <v>0.9952503594389865</v>
+        <v>0.9952503594389864</v>
       </c>
       <c r="M13">
-        <v>0.9954648634716651</v>
+        <v>0.995464863471665</v>
       </c>
     </row>
     <row r="14" spans="1:13">

--- a/JupyterNotebooks/AveragedIntensites/RGossF-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/RGossF-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.088948</v>
+        <v>0.9978792165590392</v>
       </c>
       <c r="D10">
-        <v>0.7103719999999989</v>
+        <v>0.9568473323611687</v>
       </c>
       <c r="E10">
-        <v>1.06098</v>
+        <v>1.010399892071232</v>
       </c>
       <c r="F10">
-        <v>1.088948</v>
+        <v>0.9978792165590392</v>
       </c>
       <c r="G10">
-        <v>0.8423960000000001</v>
+        <v>0.9686704768203884</v>
       </c>
       <c r="H10">
-        <v>1.152116000000003</v>
+        <v>1.038396101144211</v>
       </c>
       <c r="I10">
-        <v>1.066828</v>
+        <v>1.008068444588059</v>
       </c>
       <c r="J10">
-        <v>0.7103719999999989</v>
+        <v>0.9568473323611687</v>
       </c>
       <c r="K10">
-        <v>0.8856759999999997</v>
+        <v>0.9836236122162003</v>
       </c>
       <c r="L10">
-        <v>0.987312</v>
+        <v>0.9907514143876198</v>
       </c>
       <c r="M10">
-        <v>0.9869400000000005</v>
+        <v>0.9967102439240163</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.11</v>
+        <v>0.9915096531863427</v>
       </c>
       <c r="D11">
-        <v>0.76</v>
+        <v>0.9494867524747735</v>
       </c>
       <c r="E11">
-        <v>1.023337500000002</v>
+        <v>1.019593210170932</v>
       </c>
       <c r="F11">
-        <v>1.11</v>
+        <v>0.9915096531863427</v>
       </c>
       <c r="G11">
-        <v>0.88</v>
+        <v>0.9651441102367725</v>
       </c>
       <c r="H11">
-        <v>1.05</v>
+        <v>1.066824402246121</v>
       </c>
       <c r="I11">
-        <v>1.05</v>
+        <v>1.010978266729906</v>
       </c>
       <c r="J11">
-        <v>0.76</v>
+        <v>0.9494867524747735</v>
       </c>
       <c r="K11">
-        <v>0.891668750000001</v>
+        <v>0.9845399813228526</v>
       </c>
       <c r="L11">
-        <v>1.000834375000001</v>
+        <v>0.9880248172545976</v>
       </c>
       <c r="M11">
-        <v>0.9788895833333336</v>
+        <v>1.000589399174141</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.062325375795201</v>
+        <v>0.992132129140178</v>
       </c>
       <c r="D12">
-        <v>0.8580201534464001</v>
+        <v>0.9470569329165708</v>
       </c>
       <c r="E12">
-        <v>1.011940947660803</v>
+        <v>1.020200463977963</v>
       </c>
       <c r="F12">
-        <v>1.062325375795201</v>
+        <v>0.992132129140178</v>
       </c>
       <c r="G12">
-        <v>0.9286353675263961</v>
+        <v>0.9638057187268604</v>
       </c>
       <c r="H12">
-        <v>1.027922147327998</v>
+        <v>1.068389952881616</v>
       </c>
       <c r="I12">
-        <v>1.0268092111872</v>
+        <v>1.011563743124109</v>
       </c>
       <c r="J12">
-        <v>0.8580201534464001</v>
+        <v>0.9470569329165708</v>
       </c>
       <c r="K12">
-        <v>0.9349805505536013</v>
+        <v>0.9836286984472669</v>
       </c>
       <c r="L12">
-        <v>0.998652963174401</v>
+        <v>0.9878804137937224</v>
       </c>
       <c r="M12">
-        <v>0.9859422004906661</v>
+        <v>1.000524823461216</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9949682368236191</v>
+        <v>0.9916415996444031</v>
       </c>
       <c r="D13">
-        <v>0.9955323564408872</v>
+        <v>0.9489050359854621</v>
       </c>
       <c r="E13">
-        <v>0.9955326076678206</v>
+        <v>1.019765716410787</v>
       </c>
       <c r="F13">
-        <v>0.9949682368236191</v>
+        <v>0.9916415996444031</v>
       </c>
       <c r="G13">
-        <v>0.9952324661478241</v>
+        <v>0.9648227668829898</v>
       </c>
       <c r="H13">
-        <v>0.9959764720958956</v>
+        <v>1.067253909681489</v>
       </c>
       <c r="I13">
-        <v>0.9955470416539435</v>
+        <v>1.011121543624875</v>
       </c>
       <c r="J13">
-        <v>0.9955323564408872</v>
+        <v>0.9489050359854621</v>
       </c>
       <c r="K13">
-        <v>0.9955324820543539</v>
+        <v>0.9843353761981247</v>
       </c>
       <c r="L13">
-        <v>0.9952503594389864</v>
+        <v>0.9879884879212639</v>
       </c>
       <c r="M13">
-        <v>0.995464863471665</v>
+        <v>1.000585095371668</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9984023423609051</v>
+        <v>1.088948</v>
       </c>
       <c r="D14">
-        <v>0.9995568334681744</v>
+        <v>0.7103719999999989</v>
       </c>
       <c r="E14">
-        <v>0.9927142215189709</v>
+        <v>1.06098</v>
       </c>
       <c r="F14">
-        <v>0.9984023423609051</v>
+        <v>1.088948</v>
       </c>
       <c r="G14">
-        <v>0.9983871278416332</v>
+        <v>0.8423960000000001</v>
       </c>
       <c r="H14">
-        <v>0.986466057706513</v>
+        <v>1.152116000000003</v>
       </c>
       <c r="I14">
-        <v>0.9942931606688671</v>
+        <v>1.066828</v>
       </c>
       <c r="J14">
-        <v>0.9995568334681744</v>
+        <v>0.7103719999999989</v>
       </c>
       <c r="K14">
-        <v>0.9961355274935726</v>
+        <v>0.8856759999999997</v>
       </c>
       <c r="L14">
-        <v>0.9972689349272389</v>
+        <v>0.987312</v>
       </c>
       <c r="M14">
-        <v>0.9949699572608441</v>
+        <v>0.9869400000000005</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9903455402758302</v>
+        <v>1.11</v>
       </c>
       <c r="D15">
-        <v>1.016983766876169</v>
+        <v>0.76</v>
       </c>
       <c r="E15">
-        <v>0.9903433806267036</v>
+        <v>1.023337500000002</v>
       </c>
       <c r="F15">
-        <v>0.9903455402758302</v>
+        <v>1.11</v>
       </c>
       <c r="G15">
-        <v>1.008021030570991</v>
+        <v>0.88</v>
       </c>
       <c r="H15">
-        <v>0.981525984503236</v>
+        <v>1.05</v>
       </c>
       <c r="I15">
-        <v>0.9898025762965544</v>
+        <v>1.05</v>
       </c>
       <c r="J15">
-        <v>1.016983766876169</v>
+        <v>0.76</v>
       </c>
       <c r="K15">
-        <v>1.003663573751436</v>
+        <v>0.891668750000001</v>
       </c>
       <c r="L15">
-        <v>0.9970045570136333</v>
+        <v>1.000834375000001</v>
       </c>
       <c r="M15">
-        <v>0.9961703798582474</v>
+        <v>0.9788895833333336</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9978792165590392</v>
+        <v>1.062325375795201</v>
       </c>
       <c r="D16">
-        <v>0.9568473323611687</v>
+        <v>0.8580201534464001</v>
       </c>
       <c r="E16">
-        <v>1.010399892071232</v>
+        <v>1.011940947660803</v>
       </c>
       <c r="F16">
-        <v>0.9978792165590392</v>
+        <v>1.062325375795201</v>
       </c>
       <c r="G16">
-        <v>0.9686704768203884</v>
+        <v>0.9286353675263961</v>
       </c>
       <c r="H16">
-        <v>1.038396101144211</v>
+        <v>1.027922147327998</v>
       </c>
       <c r="I16">
-        <v>1.008068444588059</v>
+        <v>1.0268092111872</v>
       </c>
       <c r="J16">
-        <v>0.9568473323611687</v>
+        <v>0.8580201534464001</v>
       </c>
       <c r="K16">
-        <v>0.9836236122162003</v>
+        <v>0.9349805505536013</v>
       </c>
       <c r="L16">
-        <v>0.9907514143876198</v>
+        <v>0.998652963174401</v>
       </c>
       <c r="M16">
-        <v>0.9967102439240163</v>
+        <v>0.9859422004906661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9949682368236191</v>
+      </c>
+      <c r="D17">
+        <v>0.9955323564408874</v>
+      </c>
+      <c r="E17">
+        <v>0.9955326076678206</v>
+      </c>
+      <c r="F17">
+        <v>0.9949682368236191</v>
+      </c>
+      <c r="G17">
+        <v>0.9952324661478241</v>
+      </c>
+      <c r="H17">
+        <v>0.9959764720958956</v>
+      </c>
+      <c r="I17">
+        <v>0.9955470416539435</v>
+      </c>
+      <c r="J17">
+        <v>0.9955323564408874</v>
+      </c>
+      <c r="K17">
+        <v>0.9955324820543541</v>
+      </c>
+      <c r="L17">
+        <v>0.9952503594389865</v>
+      </c>
+      <c r="M17">
+        <v>0.9954648634716651</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9984023423609051</v>
+      </c>
+      <c r="D18">
+        <v>0.9995568334681744</v>
+      </c>
+      <c r="E18">
+        <v>0.9927142215189709</v>
+      </c>
+      <c r="F18">
+        <v>0.9984023423609051</v>
+      </c>
+      <c r="G18">
+        <v>0.9983871278416332</v>
+      </c>
+      <c r="H18">
+        <v>0.986466057706513</v>
+      </c>
+      <c r="I18">
+        <v>0.9942931606688671</v>
+      </c>
+      <c r="J18">
+        <v>0.9995568334681744</v>
+      </c>
+      <c r="K18">
+        <v>0.9961355274935726</v>
+      </c>
+      <c r="L18">
+        <v>0.9972689349272389</v>
+      </c>
+      <c r="M18">
+        <v>0.9949699572608441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9903455402758302</v>
+      </c>
+      <c r="D19">
+        <v>1.016983766876169</v>
+      </c>
+      <c r="E19">
+        <v>0.9903433806267036</v>
+      </c>
+      <c r="F19">
+        <v>0.9903455402758302</v>
+      </c>
+      <c r="G19">
+        <v>1.008021030570991</v>
+      </c>
+      <c r="H19">
+        <v>0.981525984503236</v>
+      </c>
+      <c r="I19">
+        <v>0.9898025762965544</v>
+      </c>
+      <c r="J19">
+        <v>1.016983766876169</v>
+      </c>
+      <c r="K19">
+        <v>1.003663573751436</v>
+      </c>
+      <c r="L19">
+        <v>0.9970045570136333</v>
+      </c>
+      <c r="M19">
+        <v>0.9961703798582474</v>
       </c>
     </row>
   </sheetData>
